--- a/project-2/glmfactors.xlsx
+++ b/project-2/glmfactors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">rating.factor</t>
   </si>
@@ -44,16 +44,10 @@
     <t xml:space="preserve">02_1000-1999kg</t>
   </si>
   <si>
-    <t xml:space="preserve">03_2000-2999kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04_3000-3999kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05_4000-4999kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06_&gt;=5000kg</t>
+    <t xml:space="preserve">03_2000-3999kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_&gt;=4000kg</t>
   </si>
   <si>
     <t xml:space="preserve">Climate</t>
@@ -71,49 +65,25 @@
     <t xml:space="preserve">ActivityCode</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
+    <t xml:space="preserve">Heavy duty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular duty</t>
   </si>
   <si>
     <t xml:space="preserve">Age</t>
   </si>
   <si>
-    <t xml:space="preserve">01_&lt;3years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02_3-5years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_6-14years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04_&gt;14years</t>
+    <t xml:space="preserve">01_&lt;5years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_6-14years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_&gt;14years</t>
   </si>
 </sst>
 </file>
@@ -505,13 +475,13 @@
         <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>2.95548322003266</v>
+        <v>3.02118305380976</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0725822799823</v>
+        <v>1.19881051533485</v>
       </c>
       <c r="G3" t="n">
-        <v>3.16999893059206</v>
+        <v>3.62182601365859</v>
       </c>
     </row>
     <row r="4">
@@ -522,19 +492,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>4902.844009371</v>
+        <v>13332.913914269</v>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="E4" t="n">
-        <v>2.62011204506764</v>
+        <v>3.37113154083139</v>
       </c>
       <c r="F4" t="n">
-        <v>1.23111020045847</v>
+        <v>1.6406532831949</v>
       </c>
       <c r="G4" t="n">
-        <v>3.22564666502686</v>
+        <v>5.5308580305469</v>
       </c>
     </row>
     <row r="5">
@@ -545,125 +515,125 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>8430.069904898</v>
+        <v>8670.590302328</v>
       </c>
       <c r="D5" t="n">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="E5" t="n">
-        <v>3.68093194492574</v>
+        <v>6.18520024732174</v>
       </c>
       <c r="F5" t="n">
-        <v>1.48304073517644</v>
+        <v>2.1651696489429</v>
       </c>
       <c r="G5" t="n">
-        <v>5.4589720177371</v>
+        <v>13.3920078481352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>4410.603532323</v>
+        <v>21991.932083254</v>
       </c>
       <c r="D6" t="n">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="E6" t="n">
-        <v>5.93841713869022</v>
+        <v>1.03464427394526</v>
       </c>
       <c r="F6" t="n">
-        <v>2.26108288660317</v>
+        <v>0.659562291997957</v>
       </c>
       <c r="G6" t="n">
-        <v>13.4272533658034</v>
+        <v>0.682412348725898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>4259.986770005</v>
+        <v>8887.607736684</v>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E7" t="n">
-        <v>6.49559414617652</v>
+        <v>1.12719816409835</v>
       </c>
       <c r="F7" t="n">
-        <v>2.6837466398136</v>
+        <v>0.953276919376991</v>
       </c>
       <c r="G7" t="n">
-        <v>17.4325289633941</v>
+        <v>1.07453199339908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>21991.932083254</v>
+        <v>23551.727828063</v>
       </c>
       <c r="D8" t="n">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E8" t="n">
-        <v>0.959825500431201</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.825184542572898</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.792033166523123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>8887.607736684</v>
+        <v>13358.857096542</v>
       </c>
       <c r="D9" t="n">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="E9" t="n">
-        <v>1.15571603812954</v>
+        <v>1.34486862367121</v>
       </c>
       <c r="F9" t="n">
-        <v>0.937525586583582</v>
+        <v>0.969650343323976</v>
       </c>
       <c r="G9" t="n">
-        <v>1.08351335657145</v>
+        <v>1.30405232266843</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>23551.727828063</v>
+        <v>27273.874562581</v>
       </c>
       <c r="D10" t="n">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -677,347 +647,94 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>9530.00002123</v>
+        <v>13798.535988878</v>
       </c>
       <c r="D11" t="n">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="E11" t="n">
-        <v>1.15339985421937</v>
+        <v>1.74097065896101</v>
       </c>
       <c r="F11" t="n">
-        <v>0.819887778762632</v>
+        <v>0.799599068442095</v>
       </c>
       <c r="G11" t="n">
-        <v>0.945658444501066</v>
+        <v>1.39207851709024</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>1324.347857594</v>
+        <v>18995.446016685</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="E12" t="n">
-        <v>1.12808289149188</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1.06502733236049</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.20143911260711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>2504.509217718</v>
+        <v>18636.401101102</v>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="E13" t="n">
-        <v>1.9282824818944</v>
+        <v>0.591476285612211</v>
       </c>
       <c r="F13" t="n">
-        <v>2.22274875474353</v>
+        <v>0.965695182488595</v>
       </c>
       <c r="G13" t="n">
-        <v>4.28608748542455</v>
+        <v>0.57118579957196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>1353.125831873</v>
+        <v>16799.420530214</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E14" t="n">
-        <v>1.294014317431</v>
+        <v>0.318422688210018</v>
       </c>
       <c r="F14" t="n">
-        <v>1.56957622879259</v>
+        <v>0.729523279823021</v>
       </c>
       <c r="G14" t="n">
-        <v>2.03105411235697</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1245.147829907</v>
-      </c>
-      <c r="D15" t="n">
-        <v>19</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.57784262412928</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.939755846648267</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.48278683111633</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>475.757331474</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.688114079783273</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.869847520830707</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.598554326348184</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5639.03716835</v>
-      </c>
-      <c r="D17" t="n">
-        <v>48</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.4594709871984</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.880466631160415</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.28501550337494</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="n">
-        <v>749.243873481</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.791203874857567</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.965954006068672</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.764266552535724</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n">
-        <v>27273.874562581</v>
-      </c>
-      <c r="D19" t="n">
-        <v>151</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2661.537815938</v>
-      </c>
-      <c r="D20" t="n">
-        <v>66</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3.14004198639839</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.910963089873601</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.86046235026232</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1674.686137855</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1.28232782980516</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.990395886669853</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.27001220800131</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9375.5974825</v>
-      </c>
-      <c r="D22" t="n">
-        <v>126</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.71442238618113</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.0549797427322</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.80868088790768</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9619.848534185</v>
-      </c>
-      <c r="D23" t="n">
-        <v>114</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.6216371264096</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.02546149370415</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.6629264298941</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="n">
-        <v>18636.401101102</v>
-      </c>
-      <c r="D24" t="n">
-        <v>151</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="n">
-        <v>16799.420530214</v>
-      </c>
-      <c r="D25" t="n">
-        <v>97</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.563245047621302</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.94098491628272</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.530005093982588</v>
+        <v>0.232296763873036</v>
       </c>
     </row>
   </sheetData>
